--- a/data/trans_bre/POLIPATOLOGÍA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>218,68%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,94; 1,88</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 9,83</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 1,58</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 23,14</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-91,71; 193,08</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,01; 646,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>17,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>393,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-86,25%</t>
+          <t>154,22%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,99; 6,01</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 1,94</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 2,34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10,0; 24,34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 3086,47</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; -0,26</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,68; 230,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,75; 292,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>19,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>402,61%</t>
+          <t>139,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-37,3%</t>
+          <t>106,66%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 26,62</t>
+          <t>0,85; 6,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 6,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,78</t>
+          <t>11,7; 27,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 224,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,83; 425,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,5; 578,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,88; 182,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,68</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>218,68%</t>
+          <t>177,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,95%</t>
+          <t>35,09%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,24</t>
+          <t>-0,83; 5,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 21,35</t>
+          <t>4,64; 18,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,3</t>
+          <t>-0,65; 6,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,52</t>
+          <t>2,3; 22,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,76; 77,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,76; 557,84</t>
+          <t>48,72; 790,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,96; 145,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,96; 191,73</t>
+          <t>5,6; 76,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>15,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>-9,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>154,22%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>86,01%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>203,17%</t>
+          <t>32,93%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,43</t>
+          <t>-6,31; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,97; 25,52</t>
+          <t>-2,81; 7,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,17</t>
+          <t>-2,68; 8,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,41</t>
+          <t>5,52; 25,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 278,69</t>
+          <t>-26,97; 14,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,13; 310,03</t>
+          <t>-12,57; 46,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 615,14</t>
+          <t>-13,09; 65,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 964,59</t>
+          <t>9,99; 60,3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,72</t>
+          <t>39,06</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>136,55%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>106,66%</t>
+          <t>148,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>69,73%</t>
+          <t>16,0%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,75</t>
+          <t>-6,38; 4,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,07; 28,02</t>
+          <t>8,78; 62,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,92</t>
+          <t>-6,59; 4,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,94</t>
+          <t>-1,42; 20,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,11; 413,47</t>
+          <t>-18,15; 15,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,0; 187,25</t>
+          <t>32,44; 297,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 294,35</t>
+          <t>-21,44; 18,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 202,94</t>
+          <t>-1,98; 37,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,32</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>12,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>10,19%</t>
         </is>
       </c>
     </row>
@@ -1268,49 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,47</t>
+          <t>-6,82; 5,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 21,24</t>
+          <t>-0,93; 14,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 8,88</t>
+          <t>5,83; 18,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,39</t>
+          <t>0,84; 16,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 132,2</t>
+          <t>-13,62; 13,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 71,55</t>
+          <t>-1,85; 41,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,93; 112,31</t>
+          <t>13,0; 51,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 56,16</t>
+          <t>1,01; 22,54</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,96</t>
+          <t>14,78</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>18,1</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>138,32%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,4%</t>
+          <t>53,56%</t>
         </is>
       </c>
     </row>
@@ -1368,366 +1368,63 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 8,32</t>
+          <t>0,33; 3,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,27; 26,77</t>
+          <t>6,28; 34,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,39</t>
+          <t>2,26; 5,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 1,43</t>
+          <t>14,13; 21,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 57,19</t>
+          <t>1,79; 23,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,73; 62,8</t>
+          <t>52,5; 363,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 37,09</t>
+          <t>17,21; 51,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 7,85</t>
+          <t>39,28; 69,32</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>10,06</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>21,04</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>16,0%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>71,74%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 5,98</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 20,84</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 46,81</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 4,71</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-16,59; 22,22</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 37,48</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>22,57; 164,55</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-15,6; 17,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>12,19</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>11,22</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>30,3%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>10,19%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>25,56%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-1,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 18,6</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 15,55</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>5,74; 16,92</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 4,12</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>13,84; 51,17</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 21,38</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>12,16; 43,02</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-12,94; 10,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,58</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>18,1</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>8,33</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>22,15%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>53,78%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>61,59%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>11,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 5,55</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>14,3; 22,17</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 17,08</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 2,98</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>9,54; 36,83</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>39,88; 70,47</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>37,78; 130,68</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 21,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/POLIPATOLOGÍA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Edad-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-24,37%</t>
+          <t>-29,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,88</t>
+          <t>-1,9; 0,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,83</t>
+          <t>0,87; 9,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 23,14</t>
+          <t>6,22; 23,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-91,71; 193,08</t>
+          <t>-89,91; 182,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,01; 646,19</t>
+          <t>46,48; 579,63</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>393,87%</t>
+          <t>254,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,01</t>
+          <t>0,79; 5,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,94</t>
+          <t>-2,46; 1,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 24,34</t>
+          <t>10,32; 25,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3086,47</t>
+          <t>-11,44; 1257,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,75; 292,55</t>
+          <t>61,84; 271,57</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>64,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,55</t>
+          <t>-0,32; 5,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,56</t>
+          <t>0,86; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 27,46</t>
+          <t>11,67; 27,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 224,75</t>
+          <t>-8,73; 209,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,83; 425,74</t>
+          <t>9,6; 492,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,88; 182,89</t>
+          <t>52,02; 181,41</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,77</t>
+          <t>-0,2; 5,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 18,05</t>
+          <t>4,83; 16,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 22,31</t>
+          <t>1,77; 21,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 77,26</t>
+          <t>-1,95; 85,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,72; 790,17</t>
+          <t>45,46; 845,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 76,09</t>
+          <t>4,12; 75,02</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,66%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,66</t>
+          <t>-4,24; 3,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 7,3</t>
+          <t>-2,03; 7,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,52; 25,7</t>
+          <t>5,96; 25,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 14,11</t>
+          <t>-19,37; 23,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 46,38</t>
+          <t>-9,37; 50,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,99; 60,3</t>
+          <t>10,85; 60,31</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 4,57</t>
+          <t>-6,29; 3,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,78; 62,53</t>
+          <t>8,29; 67,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 20,52</t>
+          <t>-1,77; 20,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 15,7</t>
+          <t>-18,39; 12,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,44; 297,76</t>
+          <t>31,52; 345,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 37,8</t>
+          <t>-2,54; 37,06</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 5,81</t>
+          <t>-5,02; 7,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 14,95</t>
+          <t>-0,34; 15,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 16,2</t>
+          <t>-0,1; 15,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 13,51</t>
+          <t>-10,36; 16,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 41,84</t>
+          <t>-0,55; 43,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 22,54</t>
+          <t>-0,13; 21,7</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,96</t>
+          <t>1,44; 4,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,28; 34,94</t>
+          <t>5,93; 32,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,13; 21,73</t>
+          <t>14,49; 21,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,79; 23,32</t>
+          <t>8,64; 31,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>52,5; 363,19</t>
+          <t>49,51; 350,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>39,28; 69,32</t>
+          <t>40,83; 69,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGÍA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Edad-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13,68</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-0,38</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,68</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>218,68%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-29,41%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>218,68%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,94; 8,05</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 23,08</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 1,58</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-1,9; 0,96</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 9,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 1,58</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,22; 23,08</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>46,48; 579,63</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-89,91; 182,37</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>46,48; 579,63</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,14</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,7</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,14</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>154,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-10,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>254,72%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,25%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-10,39%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>154,22%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,08; 2,24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10,32; 25,08</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 2,34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,79; 5,17</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 1,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 2,34</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>10,32; 25,08</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61,84; 271,57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-73,68; 230,09</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-11,44; 1257,13</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-73,68; 230,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>61,84; 271,57</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19,72</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,54</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>19,72</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>125,85%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>106,66%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>138,55%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>64,81%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>139,06%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>138,55%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>106,66%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,98; 6,72</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 27,94</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 6,47</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,32; 5,34</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 6,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 6,47</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>11,67; 27,94</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>8,24; 424,25</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52,02; 181,41</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 578,51</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-8,73; 209,91</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>9,6; 492,25</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>9,5; 578,51</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>52,02; 181,41</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,58</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12,32</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,63</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,41</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,32</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>65,55%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35,09%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>50,46%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>34,59%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>177,03%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>50,46%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>35,09%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,69; 9,37</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 21,8</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 6,59</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-0,2; 5,53</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 16,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 6,59</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 21,8</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>12,34; 151,09</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 75,02</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; 145,62</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-1,95; 85,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>45,46; 845,55</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-11,96; 145,62</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,12; 75,02</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,96</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,25</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,96</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32,93%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-1,31%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,96%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>18,78%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>32,93%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-2,41; 7,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 25,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 8,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-4,24; 3,76</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 7,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 8,57</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 25,93</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>-11,79; 47,43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10,85; 60,31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,09; 65,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>-19,37; 23,04</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-9,37; 50,92</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-13,09; 65,41</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 60,31</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>12,38</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10,06</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-1,08</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>39,06</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,06</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>48,3%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,06%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>-3,42%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>148,46%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-4,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>16,0%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>5,62; 18,66</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 20,64</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 4,88</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-6,29; 3,72</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 67,62</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 4,88</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 20,64</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>18,52; 87,04</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 37,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-21,44; 18,53</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>-18,39; 12,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>31,52; 345,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-21,44; 18,53</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 37,06</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12,33</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,06</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,64</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12,33</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31,55%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>2,36%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>18,77%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>31,55%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>10,19%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,74; 15,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 15,85</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 18,63</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>-5,02; 7,01</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 15,11</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 18,63</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,1; 15,85</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>-2,07; 40,55</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 21,7</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 51,26</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>-10,36; 16,91</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 43,39</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>13,0; 51,26</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 21,7</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18,1</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,19</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>3,0</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>14,78</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4,19</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>18,1</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>52,29%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>53,56%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34,29%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>18,99%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>138,32%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>34,29%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>53,56%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4,24; 7,98</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14,49; 21,84</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 5,97</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>1,44; 4,69</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 32,2</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 5,97</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>14,49; 21,84</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>32,37; 72,37</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>40,83; 69,48</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 51,7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>8,64; 31,88</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>49,51; 350,9</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>17,21; 51,7</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>40,83; 69,48</t>
         </is>
       </c>
     </row>
